--- a/Project-II Documents/Team4_R1_RoadMap_v2.xlsx
+++ b/Project-II Documents/Team4_R1_RoadMap_v2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ss48135n\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D075B510-9087-4E48-96A2-C93EFEF5A04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7DB627-05F8-4B05-AB1B-308D6FB9F83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Road Map" sheetId="1" r:id="rId1"/>
-    <sheet name="JIRA RoadMap" sheetId="3" r:id="rId2"/>
-    <sheet name="Story Map" sheetId="2" r:id="rId3"/>
+    <sheet name="Story Map" sheetId="2" r:id="rId2"/>
+    <sheet name="Jira RoadMap" sheetId="3" r:id="rId3"/>
+    <sheet name="Kanban Board" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Application Modules</t>
   </si>
@@ -117,12 +118,6 @@
   </si>
   <si>
     <t>02.01 Search Hotels or Events by Text</t>
-  </si>
-  <si>
-    <t>02.04 Search Hotels or Events by Photo</t>
-  </si>
-  <si>
-    <t>v</t>
   </si>
   <si>
     <t>Features implemented in last semester</t>
@@ -653,22 +648,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>22995</xdr:rowOff>
+      <xdr:rowOff>59586</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D4DA53D-D2C3-8B5A-18B0-7AE25B02A310}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A128C89-5D10-B7CF-9291-7E4DBE074591}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -690,8 +685,63 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="579120" y="167640"/>
-          <a:ext cx="9654540" cy="4975995"/>
+          <a:off x="304800" y="289560"/>
+          <a:ext cx="9494520" cy="4890666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7088299-0D01-F338-4AF9-8967FA92E786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="213360" y="167640"/>
+          <a:ext cx="9585960" cy="4912805"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -990,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1253,7 +1303,7 @@
       <c r="J10"/>
       <c r="K10" s="17"/>
       <c r="L10" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M10" s="46"/>
       <c r="N10" s="46"/>
@@ -1300,11 +1350,11 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1318,20 +1368,21 @@
       <c r="S12"/>
     </row>
     <row r="13" spans="1:20" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="13" t="s">
-        <v>27</v>
+      <c r="A13" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1345,17 +1396,16 @@
       <c r="S13"/>
     </row>
     <row r="14" spans="1:20" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
+      <c r="A14" s="44"/>
+      <c r="B14" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="C14" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="11" t="s">
         <v>25</v>
       </c>
@@ -1375,7 +1425,7 @@
     <row r="15" spans="1:20" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="12">
         <v>4</v>
@@ -1400,21 +1450,21 @@
       <c r="S15"/>
     </row>
     <row r="16" spans="1:20" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
+      <c r="A16" s="44" t="s">
+        <v>40</v>
+      </c>
       <c r="B16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="12">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="11">
+        <v>5</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="I16" s="11"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -1427,36 +1477,26 @@
       <c r="S16"/>
     </row>
     <row r="17" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="12">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="44"/>
+      <c r="B18" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="11">
-        <v>5</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-    </row>
-    <row r="18" spans="1:23" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="C18" s="12">
         <v>4</v>
@@ -1471,49 +1511,57 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="A19" s="3"/>
+      <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="11" t="s">
-        <v>25</v>
+      <c r="E19" s="5"/>
+      <c r="F19" s="16">
+        <v>9</v>
+      </c>
+      <c r="G19" s="16">
+        <v>13</v>
+      </c>
+      <c r="H19" s="16">
+        <v>9</v>
+      </c>
+      <c r="I19" s="16">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="16">
-        <v>13</v>
-      </c>
-      <c r="G20" s="16">
-        <v>13</v>
-      </c>
-      <c r="H20" s="16">
-        <v>9</v>
-      </c>
-      <c r="I20" s="16">
-        <v>8</v>
-      </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1530,72 +1578,44 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="C26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="L10:R10"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:Q31"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="R31:T31"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:T2"/>
   </mergeCells>
@@ -1605,26 +1625,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95150F6C-0021-428A-A891-3EEFADD2B174}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1524AFFC-1D2B-403C-B7A1-FA259042A5BC}">
   <dimension ref="A3:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1635,17 +1640,17 @@
     <col min="4" max="4" width="35.88671875" customWidth="1"/>
     <col min="5" max="5" width="39.33203125" customWidth="1"/>
     <col min="6" max="6" width="35.44140625" customWidth="1"/>
-    <col min="7" max="7" width="45.109375" customWidth="1"/>
+    <col min="7" max="7" width="35.5546875" customWidth="1"/>
     <col min="8" max="8" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
@@ -1654,26 +1659,26 @@
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>39</v>
       </c>
       <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="35"/>
@@ -1686,7 +1691,7 @@
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="35"/>
@@ -1696,20 +1701,17 @@
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
       <c r="H6" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="25"/>
-      <c r="E7" s="13" t="s">
-        <v>17</v>
-      </c>
       <c r="F7" s="35"/>
       <c r="G7" s="25"/>
     </row>
@@ -1741,14 +1743,14 @@
       </c>
       <c r="G10" s="35"/>
       <c r="H10" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" s="48"/>
       <c r="D11" s="24"/>
       <c r="E11" s="30" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="31"/>
@@ -1760,10 +1762,10 @@
       <c r="E12" s="21"/>
       <c r="F12" s="24"/>
       <c r="G12" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -1772,10 +1774,10 @@
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1784,7 +1786,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1802,4 +1804,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4813000-0ABC-4A3E-896A-99284D63A630}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97783F34-CE77-40EB-8B04-178A93604317}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>